--- a/biology/Botanique/Pneumatophore/Pneumatophore.xlsx
+++ b/biology/Botanique/Pneumatophore/Pneumatophore.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Un pneumatophore (du préfixe grec pneumat- πνεῠμᾰτ-, qui signifie « respiration » et du suffixe grec -phore φορός, qui signifie « porter ») est l'organe d'une plante ou d'un animal aquatique spécialisé pour une interaction avec l'atmosphère.
 En botanique une excroissance aérienne des racines de certains arbres ayant pour fonction les échanges gazeux quand ils sont impossibles pour les racines dans les zones humides.
@@ -518,7 +530,9 @@
           <t>Botanique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">En botanique, c’est une excroissance aérienne des racines de certains arbres vivant dans des zones humides (marais, marécage, mangrove, etc.).
 L’excroissance est en arceaux ou verticale (géotropisme négatif), semblable à un genou. Elle émerge souvent de l'eau.
@@ -558,7 +572,9 @@
           <t>Zoologie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">En zoologie, il sert souvent de flotteur, par exemple chez les organismes de l’ordre des Siphonophorae comme la Physalie qui flottent à l’aide d’un pneumatophore.
 </t>
